--- a/CLAVES MINAS.xlsx
+++ b/CLAVES MINAS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CLAVES SIP-DGAE\Análisis de claves\CLAVES-FORMATOS FINALES\FORMATOS FINALES CORREGIDOS COMPLETOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Facultad\Servicio Social\FORMATOS FINALES CORREGIDOS COMPLETOS\PlanesEstudio\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="132">
   <si>
     <t>CLAVE ASIGNATURA</t>
   </si>
@@ -426,6 +426,30 @@
   </si>
   <si>
     <t>1052</t>
+  </si>
+  <si>
+    <t>DEPARTAMENTO</t>
+  </si>
+  <si>
+    <t>ASIGNATURAS SOCIOHUMANÍSTICAS</t>
+  </si>
+  <si>
+    <t>INGENIERÍA EN COMPUTACIÓN</t>
+  </si>
+  <si>
+    <t>COORDINACIÓN DE MATEMÁTICAS</t>
+  </si>
+  <si>
+    <t>COORDINACIÓN DE FÍSICA Y QUÍMICA</t>
+  </si>
+  <si>
+    <t>COORDINACIÓN DE CIENCIAS APLICADAS</t>
+  </si>
+  <si>
+    <t>INGENIERÍA GEOLÓGICA</t>
+  </si>
+  <si>
+    <t>INGENIERÍA PETROLERA</t>
   </si>
 </sst>
 </file>
@@ -497,7 +521,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -520,11 +544,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -582,6 +626,12 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -868,10 +918,10 @@
   </sheetPr>
   <dimension ref="A1:AA71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="171" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="T30" sqref="T30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -884,14 +934,15 @@
     <col min="6" max="6" width="10.85546875" customWidth="1"/>
     <col min="7" max="7" width="14.140625" style="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="45.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="44.140625" style="7" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" hidden="1" customWidth="1"/>
+    <col min="10" max="11" width="11.28515625" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="8.42578125" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5703125" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="12.85546875" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="40.28515625" style="7" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="30.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" s="9" customFormat="1" ht="36" x14ac:dyDescent="0.25">
@@ -946,6 +997,9 @@
       <c r="Q1" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="R1" s="5" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="2" spans="1:27" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -999,7 +1053,9 @@
       <c r="Q2" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="R2" s="21"/>
+      <c r="R2" s="24" t="s">
+        <v>127</v>
+      </c>
       <c r="S2" s="21"/>
       <c r="T2" s="21"/>
       <c r="U2" s="21"/>
@@ -1062,7 +1118,9 @@
       <c r="Q3" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="R3" s="21"/>
+      <c r="R3" s="24" t="s">
+        <v>127</v>
+      </c>
       <c r="S3" s="21"/>
       <c r="T3" s="21"/>
       <c r="U3" s="21"/>
@@ -1125,7 +1183,9 @@
       <c r="Q4" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="R4" s="21"/>
+      <c r="R4" s="24" t="s">
+        <v>125</v>
+      </c>
       <c r="S4" s="21"/>
       <c r="T4" s="21"/>
       <c r="U4" s="21"/>
@@ -1188,7 +1248,9 @@
       <c r="Q5" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="R5" s="21"/>
+      <c r="R5" s="24" t="s">
+        <v>130</v>
+      </c>
       <c r="S5" s="21"/>
       <c r="T5" s="21"/>
       <c r="U5" s="21"/>
@@ -1251,7 +1313,9 @@
       <c r="Q6" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="R6" s="21"/>
+      <c r="R6" s="24" t="s">
+        <v>95</v>
+      </c>
       <c r="S6" s="21"/>
       <c r="T6" s="21"/>
       <c r="U6" s="21"/>
@@ -1314,7 +1378,9 @@
       <c r="Q7" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="R7" s="21"/>
+      <c r="R7" s="25" t="s">
+        <v>127</v>
+      </c>
       <c r="S7" s="21"/>
       <c r="T7" s="21"/>
       <c r="U7" s="21"/>
@@ -1377,7 +1443,9 @@
       <c r="Q8" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="R8" s="21"/>
+      <c r="R8" s="25" t="s">
+        <v>127</v>
+      </c>
       <c r="S8" s="21"/>
       <c r="T8" s="21"/>
       <c r="U8" s="21"/>
@@ -1440,7 +1508,9 @@
       <c r="Q9" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="R9" s="21"/>
+      <c r="R9" s="25" t="s">
+        <v>130</v>
+      </c>
       <c r="S9" s="21"/>
       <c r="T9" s="21"/>
       <c r="U9" s="21"/>
@@ -1503,7 +1573,9 @@
       <c r="Q10" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="R10" s="21"/>
+      <c r="R10" s="24" t="s">
+        <v>128</v>
+      </c>
       <c r="S10" s="21"/>
       <c r="T10" s="21"/>
       <c r="U10" s="21"/>
@@ -1566,7 +1638,9 @@
       <c r="Q11" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="R11" s="21"/>
+      <c r="R11" s="25" t="s">
+        <v>128</v>
+      </c>
       <c r="S11" s="21"/>
       <c r="T11" s="21"/>
       <c r="U11" s="21"/>
@@ -1629,7 +1703,9 @@
       <c r="Q12" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="R12" s="21"/>
+      <c r="R12" s="25" t="s">
+        <v>126</v>
+      </c>
       <c r="S12" s="21"/>
       <c r="T12" s="21"/>
       <c r="U12" s="21"/>
@@ -1692,7 +1768,9 @@
       <c r="Q13" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="R13" s="21"/>
+      <c r="R13" s="25" t="s">
+        <v>127</v>
+      </c>
       <c r="S13" s="21"/>
       <c r="T13" s="21"/>
       <c r="U13" s="21"/>
@@ -1755,7 +1833,9 @@
       <c r="Q14" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="R14" s="21"/>
+      <c r="R14" s="25" t="s">
+        <v>129</v>
+      </c>
       <c r="S14" s="21"/>
       <c r="T14" s="21"/>
       <c r="U14" s="21"/>
@@ -1818,7 +1898,9 @@
       <c r="Q15" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="R15" s="21"/>
+      <c r="R15" s="25" t="s">
+        <v>130</v>
+      </c>
       <c r="S15" s="21"/>
       <c r="T15" s="21"/>
       <c r="U15" s="21"/>
@@ -1881,7 +1963,9 @@
       <c r="Q16" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="R16" s="21"/>
+      <c r="R16" s="25" t="s">
+        <v>128</v>
+      </c>
       <c r="S16" s="21"/>
       <c r="T16" s="21"/>
       <c r="U16" s="21"/>
@@ -1944,7 +2028,9 @@
       <c r="Q17" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="R17" s="21"/>
+      <c r="R17" s="25" t="s">
+        <v>128</v>
+      </c>
       <c r="S17" s="21"/>
       <c r="T17" s="21"/>
       <c r="U17" s="21"/>
@@ -2007,7 +2093,9 @@
       <c r="Q18" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="R18" s="21"/>
+      <c r="R18" s="25" t="s">
+        <v>125</v>
+      </c>
       <c r="S18" s="21"/>
       <c r="T18" s="21"/>
       <c r="U18" s="21"/>
@@ -2070,7 +2158,9 @@
       <c r="Q19" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="R19" s="21"/>
+      <c r="R19" s="25" t="s">
+        <v>129</v>
+      </c>
       <c r="S19" s="21"/>
       <c r="T19" s="21"/>
       <c r="U19" s="21"/>
@@ -2133,7 +2223,9 @@
       <c r="Q20" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="R20" s="21"/>
+      <c r="R20" s="25" t="s">
+        <v>129</v>
+      </c>
       <c r="S20" s="21"/>
       <c r="T20" s="21"/>
       <c r="U20" s="21"/>
@@ -2196,7 +2288,9 @@
       <c r="Q21" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="R21" s="21"/>
+      <c r="R21" s="25" t="s">
+        <v>129</v>
+      </c>
       <c r="S21" s="21"/>
       <c r="T21" s="21"/>
       <c r="U21" s="21"/>
@@ -2259,7 +2353,9 @@
       <c r="Q22" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="R22" s="21"/>
+      <c r="R22" s="25" t="s">
+        <v>129</v>
+      </c>
       <c r="S22" s="21"/>
       <c r="T22" s="21"/>
       <c r="U22" s="21"/>
@@ -2322,7 +2418,9 @@
       <c r="Q23" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="R23" s="21"/>
+      <c r="R23" s="25" t="s">
+        <v>95</v>
+      </c>
       <c r="S23" s="21"/>
       <c r="T23" s="21"/>
       <c r="U23" s="21"/>
@@ -2385,7 +2483,9 @@
       <c r="Q24" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="R24" s="21"/>
+      <c r="R24" s="25" t="s">
+        <v>130</v>
+      </c>
       <c r="S24" s="21"/>
       <c r="T24" s="21"/>
       <c r="U24" s="21"/>
@@ -2448,7 +2548,9 @@
       <c r="Q25" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="R25" s="21"/>
+      <c r="R25" s="25" t="s">
+        <v>95</v>
+      </c>
       <c r="S25" s="21"/>
       <c r="T25" s="21"/>
       <c r="U25" s="21"/>
@@ -2511,7 +2613,9 @@
       <c r="Q26" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="R26" s="21"/>
+      <c r="R26" s="25" t="s">
+        <v>125</v>
+      </c>
       <c r="S26" s="21"/>
       <c r="T26" s="21"/>
       <c r="U26" s="21"/>
@@ -2574,7 +2678,9 @@
       <c r="Q27" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="R27" s="21"/>
+      <c r="R27" s="25" t="s">
+        <v>129</v>
+      </c>
       <c r="S27" s="21"/>
       <c r="T27" s="21"/>
       <c r="U27" s="21"/>
@@ -2637,7 +2743,9 @@
       <c r="Q28" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="R28" s="21"/>
+      <c r="R28" s="25" t="s">
+        <v>95</v>
+      </c>
       <c r="S28" s="21"/>
       <c r="T28" s="21"/>
       <c r="U28" s="21"/>
@@ -2700,7 +2808,9 @@
       <c r="Q29" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="R29" s="21"/>
+      <c r="R29" s="25" t="s">
+        <v>95</v>
+      </c>
       <c r="S29" s="21"/>
       <c r="T29" s="21"/>
       <c r="U29" s="21"/>
@@ -2763,7 +2873,9 @@
       <c r="Q30" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="R30" s="21"/>
+      <c r="R30" s="25" t="s">
+        <v>130</v>
+      </c>
       <c r="S30" s="21"/>
       <c r="T30" s="21"/>
       <c r="U30" s="21"/>
@@ -2826,7 +2938,9 @@
       <c r="Q31" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="R31" s="21"/>
+      <c r="R31" s="25" t="s">
+        <v>95</v>
+      </c>
       <c r="S31" s="21"/>
       <c r="T31" s="21"/>
       <c r="U31" s="21"/>
@@ -2889,7 +3003,9 @@
       <c r="Q32" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="R32" s="21"/>
+      <c r="R32" s="25" t="s">
+        <v>95</v>
+      </c>
       <c r="S32" s="21"/>
       <c r="T32" s="21"/>
       <c r="U32" s="21"/>
@@ -2952,7 +3068,9 @@
       <c r="Q33" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="R33" s="21"/>
+      <c r="R33" s="25" t="s">
+        <v>130</v>
+      </c>
       <c r="S33" s="21"/>
       <c r="T33" s="21"/>
       <c r="U33" s="21"/>
@@ -3015,7 +3133,9 @@
       <c r="Q34" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="R34" s="21"/>
+      <c r="R34" s="24" t="s">
+        <v>131</v>
+      </c>
       <c r="S34" s="21"/>
       <c r="T34" s="21"/>
       <c r="U34" s="21"/>
@@ -3078,7 +3198,9 @@
       <c r="Q35" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="R35" s="21"/>
+      <c r="R35" s="25" t="s">
+        <v>130</v>
+      </c>
       <c r="S35" s="21"/>
       <c r="T35" s="21"/>
       <c r="U35" s="21"/>
@@ -3141,7 +3263,9 @@
       <c r="Q36" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="R36" s="21"/>
+      <c r="R36" s="25" t="s">
+        <v>125</v>
+      </c>
       <c r="S36" s="21"/>
       <c r="T36" s="21"/>
       <c r="U36" s="21"/>
@@ -3204,7 +3328,9 @@
       <c r="Q37" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="R37" s="21"/>
+      <c r="R37" s="25" t="s">
+        <v>95</v>
+      </c>
       <c r="S37" s="21"/>
       <c r="T37" s="21"/>
       <c r="U37" s="21"/>
@@ -3267,7 +3393,9 @@
       <c r="Q38" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="R38" s="21"/>
+      <c r="R38" s="25" t="s">
+        <v>95</v>
+      </c>
       <c r="S38" s="21"/>
       <c r="T38" s="21"/>
       <c r="U38" s="21"/>
@@ -3330,7 +3458,9 @@
       <c r="Q39" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="R39" s="21"/>
+      <c r="R39" s="25" t="s">
+        <v>130</v>
+      </c>
       <c r="S39" s="21"/>
       <c r="T39" s="21"/>
       <c r="U39" s="21"/>
@@ -3393,7 +3523,9 @@
       <c r="Q40" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="R40" s="21"/>
+      <c r="R40" s="25" t="s">
+        <v>130</v>
+      </c>
       <c r="S40" s="21"/>
       <c r="T40" s="21"/>
       <c r="U40" s="21"/>
@@ -3456,7 +3588,9 @@
       <c r="Q41" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="R41" s="21"/>
+      <c r="R41" s="24" t="s">
+        <v>95</v>
+      </c>
       <c r="S41" s="21"/>
       <c r="T41" s="21"/>
       <c r="U41" s="21"/>
@@ -3519,7 +3653,9 @@
       <c r="Q42" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="R42" s="21"/>
+      <c r="R42" s="25" t="s">
+        <v>95</v>
+      </c>
       <c r="S42" s="21"/>
       <c r="T42" s="21"/>
       <c r="U42" s="21"/>
@@ -3582,7 +3718,9 @@
       <c r="Q43" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="R43" s="21"/>
+      <c r="R43" s="25" t="s">
+        <v>95</v>
+      </c>
       <c r="S43" s="21"/>
       <c r="T43" s="21"/>
       <c r="U43" s="21"/>
@@ -3645,7 +3783,9 @@
       <c r="Q44" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="R44" s="21"/>
+      <c r="R44" s="25" t="s">
+        <v>95</v>
+      </c>
       <c r="S44" s="21"/>
       <c r="T44" s="21"/>
       <c r="U44" s="21"/>
@@ -3708,7 +3848,9 @@
       <c r="Q45" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="R45" s="21"/>
+      <c r="R45" s="24" t="s">
+        <v>95</v>
+      </c>
       <c r="S45" s="21"/>
       <c r="T45" s="21"/>
       <c r="U45" s="21"/>
@@ -3771,7 +3913,9 @@
       <c r="Q46" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="R46" s="21"/>
+      <c r="R46" s="24" t="s">
+        <v>125</v>
+      </c>
       <c r="S46" s="21"/>
       <c r="T46" s="21"/>
       <c r="U46" s="21"/>
@@ -3834,7 +3978,9 @@
       <c r="Q47" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="R47" s="21"/>
+      <c r="R47" s="25" t="s">
+        <v>95</v>
+      </c>
       <c r="S47" s="21"/>
       <c r="T47" s="21"/>
       <c r="U47" s="21"/>
@@ -3897,7 +4043,9 @@
       <c r="Q48" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="R48" s="21"/>
+      <c r="R48" s="25" t="s">
+        <v>95</v>
+      </c>
       <c r="S48" s="21"/>
       <c r="T48" s="21"/>
       <c r="U48" s="21"/>
@@ -3960,7 +4108,9 @@
       <c r="Q49" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="R49" s="21"/>
+      <c r="R49" s="25" t="s">
+        <v>95</v>
+      </c>
       <c r="S49" s="21"/>
       <c r="T49" s="21"/>
       <c r="U49" s="21"/>
@@ -4023,7 +4173,9 @@
       <c r="Q50" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="R50" s="21"/>
+      <c r="R50" s="25" t="s">
+        <v>95</v>
+      </c>
       <c r="S50" s="21"/>
       <c r="T50" s="21"/>
       <c r="U50" s="21"/>
@@ -4086,7 +4238,9 @@
       <c r="Q51" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="R51" s="21"/>
+      <c r="R51" s="25" t="s">
+        <v>95</v>
+      </c>
       <c r="S51" s="21"/>
       <c r="T51" s="21"/>
       <c r="U51" s="21"/>
@@ -4149,7 +4303,9 @@
       <c r="Q52" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="R52" s="21"/>
+      <c r="R52" s="25" t="s">
+        <v>125</v>
+      </c>
       <c r="S52" s="21"/>
       <c r="T52" s="21"/>
       <c r="U52" s="21"/>
@@ -4212,7 +4368,9 @@
       <c r="Q53" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="R53" s="21"/>
+      <c r="R53" s="25" t="s">
+        <v>95</v>
+      </c>
       <c r="S53" s="21"/>
       <c r="T53" s="21"/>
       <c r="U53" s="21"/>
@@ -4275,7 +4433,9 @@
       <c r="Q54" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="R54" s="21"/>
+      <c r="R54" s="25" t="s">
+        <v>95</v>
+      </c>
       <c r="S54" s="21"/>
       <c r="T54" s="21"/>
       <c r="U54" s="21"/>
@@ -4338,7 +4498,9 @@
       <c r="Q55" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="R55" s="21"/>
+      <c r="R55" s="25" t="s">
+        <v>95</v>
+      </c>
       <c r="S55" s="21"/>
       <c r="T55" s="21"/>
       <c r="U55" s="21"/>
@@ -4401,7 +4563,9 @@
       <c r="Q56" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="R56" s="21"/>
+      <c r="R56" s="25" t="s">
+        <v>95</v>
+      </c>
       <c r="S56" s="21"/>
       <c r="T56" s="21"/>
       <c r="U56" s="21"/>
@@ -4464,7 +4628,9 @@
       <c r="Q57" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="R57" s="21"/>
+      <c r="R57" s="25" t="s">
+        <v>130</v>
+      </c>
       <c r="S57" s="21"/>
       <c r="T57" s="21"/>
       <c r="U57" s="21"/>
@@ -4527,7 +4693,9 @@
       <c r="Q58" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="R58" s="21"/>
+      <c r="R58" s="25" t="s">
+        <v>95</v>
+      </c>
       <c r="S58" s="21"/>
       <c r="T58" s="21"/>
       <c r="U58" s="21"/>
@@ -4590,7 +4758,9 @@
       <c r="Q59" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="R59" s="21"/>
+      <c r="R59" s="25" t="s">
+        <v>95</v>
+      </c>
       <c r="S59" s="21"/>
       <c r="T59" s="21"/>
       <c r="U59" s="21"/>
@@ -4653,7 +4823,9 @@
       <c r="Q60" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="R60" s="21"/>
+      <c r="R60" s="25" t="s">
+        <v>95</v>
+      </c>
       <c r="S60" s="21"/>
       <c r="T60" s="21"/>
       <c r="U60" s="21"/>
@@ -4716,7 +4888,9 @@
       <c r="Q61" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="R61" s="21"/>
+      <c r="R61" s="25" t="s">
+        <v>95</v>
+      </c>
       <c r="S61" s="21"/>
       <c r="T61" s="21"/>
       <c r="U61" s="21"/>
@@ -4779,7 +4953,9 @@
       <c r="Q62" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="R62" s="21"/>
+      <c r="R62" s="25" t="s">
+        <v>95</v>
+      </c>
       <c r="S62" s="21"/>
       <c r="T62" s="21"/>
       <c r="U62" s="21"/>
@@ -4842,7 +5018,9 @@
       <c r="Q63" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="R63" s="21"/>
+      <c r="R63" s="25" t="s">
+        <v>130</v>
+      </c>
       <c r="S63" s="21"/>
       <c r="T63" s="21"/>
       <c r="U63" s="21"/>
@@ -4905,7 +5083,9 @@
       <c r="Q64" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="R64" s="21"/>
+      <c r="R64" s="24" t="s">
+        <v>125</v>
+      </c>
       <c r="S64" s="21"/>
       <c r="T64" s="21"/>
       <c r="U64" s="21"/>
@@ -4968,7 +5148,9 @@
       <c r="Q65" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="R65" s="21"/>
+      <c r="R65" s="24" t="s">
+        <v>125</v>
+      </c>
       <c r="S65" s="21"/>
       <c r="T65" s="21"/>
       <c r="U65" s="21"/>
@@ -5031,7 +5213,9 @@
       <c r="Q66" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="R66" s="21"/>
+      <c r="R66" s="24" t="s">
+        <v>125</v>
+      </c>
       <c r="S66" s="21"/>
       <c r="T66" s="21"/>
       <c r="U66" s="21"/>
@@ -5094,7 +5278,9 @@
       <c r="Q67" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="R67" s="21"/>
+      <c r="R67" s="25" t="s">
+        <v>125</v>
+      </c>
       <c r="S67" s="21"/>
       <c r="T67" s="21"/>
       <c r="U67" s="21"/>
@@ -5157,7 +5343,9 @@
       <c r="Q68" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="R68" s="21"/>
+      <c r="R68" s="25" t="s">
+        <v>125</v>
+      </c>
       <c r="S68" s="21"/>
       <c r="T68" s="21"/>
       <c r="U68" s="21"/>
@@ -5226,7 +5414,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q68"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="43" fitToHeight="0" orientation="landscape" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>

--- a/CLAVES MINAS.xlsx
+++ b/CLAVES MINAS.xlsx
@@ -459,7 +459,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -494,6 +494,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color indexed="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -521,7 +534,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -548,27 +561,20 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right/>
+      <top style="thin">
         <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -627,12 +633,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -918,10 +929,10 @@
   </sheetPr>
   <dimension ref="A1:AA71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="T30" sqref="T30"/>
+      <selection pane="bottomLeft" activeCell="T25" sqref="T25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -933,16 +944,17 @@
     <col min="5" max="5" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.85546875" customWidth="1"/>
     <col min="7" max="7" width="14.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="45.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" hidden="1" customWidth="1"/>
-    <col min="10" max="11" width="11.28515625" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="8.42578125" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="11.7109375" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="12.5703125" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="12.85546875" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="40.28515625" style="7" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="64.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="40.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="33" style="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" s="9" customFormat="1" ht="36" x14ac:dyDescent="0.25">
@@ -994,10 +1006,10 @@
       <c r="P1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="Q1" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="R1" s="26" t="s">
         <v>124</v>
       </c>
     </row>
@@ -1050,10 +1062,10 @@
       <c r="P2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="Q2" s="15" t="s">
+      <c r="Q2" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="R2" s="24" t="s">
+      <c r="R2" s="11" t="s">
         <v>127</v>
       </c>
       <c r="S2" s="21"/>
@@ -1115,10 +1127,10 @@
       <c r="P3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="15" t="s">
+      <c r="Q3" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="R3" s="24" t="s">
+      <c r="R3" s="11" t="s">
         <v>127</v>
       </c>
       <c r="S3" s="21"/>
@@ -1180,10 +1192,10 @@
       <c r="P4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="Q4" s="15" t="s">
+      <c r="Q4" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="R4" s="24" t="s">
+      <c r="R4" s="11" t="s">
         <v>125</v>
       </c>
       <c r="S4" s="21"/>
@@ -1245,10 +1257,10 @@
       <c r="P5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="Q5" s="15" t="s">
+      <c r="Q5" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="R5" s="24" t="s">
+      <c r="R5" s="11" t="s">
         <v>130</v>
       </c>
       <c r="S5" s="21"/>
@@ -1310,10 +1322,10 @@
       <c r="P6" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="15" t="s">
+      <c r="Q6" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="R6" s="24" t="s">
+      <c r="R6" s="11" t="s">
         <v>95</v>
       </c>
       <c r="S6" s="21"/>
@@ -1375,10 +1387,10 @@
       <c r="P7" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="Q7" s="15" t="s">
+      <c r="Q7" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="R7" s="25" t="s">
+      <c r="R7" s="11" t="s">
         <v>127</v>
       </c>
       <c r="S7" s="21"/>
@@ -1440,10 +1452,10 @@
       <c r="P8" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="Q8" s="15" t="s">
+      <c r="Q8" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="R8" s="25" t="s">
+      <c r="R8" s="11" t="s">
         <v>127</v>
       </c>
       <c r="S8" s="21"/>
@@ -1505,10 +1517,10 @@
       <c r="P9" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="Q9" s="15" t="s">
+      <c r="Q9" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="R9" s="25" t="s">
+      <c r="R9" s="11" t="s">
         <v>130</v>
       </c>
       <c r="S9" s="21"/>
@@ -1570,10 +1582,10 @@
       <c r="P10" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="Q10" s="15" t="s">
+      <c r="Q10" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="R10" s="24" t="s">
+      <c r="R10" s="11" t="s">
         <v>128</v>
       </c>
       <c r="S10" s="21"/>
@@ -1635,10 +1647,10 @@
       <c r="P11" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="Q11" s="15" t="s">
+      <c r="Q11" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="R11" s="25" t="s">
+      <c r="R11" s="11" t="s">
         <v>128</v>
       </c>
       <c r="S11" s="21"/>
@@ -1700,10 +1712,10 @@
       <c r="P12" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="Q12" s="15" t="s">
+      <c r="Q12" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="R12" s="25" t="s">
+      <c r="R12" s="11" t="s">
         <v>126</v>
       </c>
       <c r="S12" s="21"/>
@@ -1765,10 +1777,10 @@
       <c r="P13" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="Q13" s="15" t="s">
+      <c r="Q13" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="R13" s="25" t="s">
+      <c r="R13" s="11" t="s">
         <v>127</v>
       </c>
       <c r="S13" s="21"/>
@@ -1830,10 +1842,10 @@
       <c r="P14" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="Q14" s="15" t="s">
+      <c r="Q14" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="R14" s="25" t="s">
+      <c r="R14" s="11" t="s">
         <v>129</v>
       </c>
       <c r="S14" s="21"/>
@@ -1895,10 +1907,10 @@
       <c r="P15" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="Q15" s="15" t="s">
+      <c r="Q15" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="R15" s="25" t="s">
+      <c r="R15" s="11" t="s">
         <v>130</v>
       </c>
       <c r="S15" s="21"/>
@@ -1960,10 +1972,10 @@
       <c r="P16" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="Q16" s="15" t="s">
+      <c r="Q16" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="R16" s="25" t="s">
+      <c r="R16" s="11" t="s">
         <v>128</v>
       </c>
       <c r="S16" s="21"/>
@@ -2025,10 +2037,10 @@
       <c r="P17" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="Q17" s="15" t="s">
+      <c r="Q17" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="R17" s="25" t="s">
+      <c r="R17" s="11" t="s">
         <v>128</v>
       </c>
       <c r="S17" s="21"/>
@@ -2090,10 +2102,10 @@
       <c r="P18" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="Q18" s="15" t="s">
+      <c r="Q18" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="R18" s="25" t="s">
+      <c r="R18" s="11" t="s">
         <v>125</v>
       </c>
       <c r="S18" s="21"/>
@@ -2155,10 +2167,10 @@
       <c r="P19" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="Q19" s="15" t="s">
+      <c r="Q19" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="R19" s="25" t="s">
+      <c r="R19" s="11" t="s">
         <v>129</v>
       </c>
       <c r="S19" s="21"/>
@@ -2220,10 +2232,10 @@
       <c r="P20" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="Q20" s="15" t="s">
+      <c r="Q20" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="R20" s="25" t="s">
+      <c r="R20" s="11" t="s">
         <v>129</v>
       </c>
       <c r="S20" s="21"/>
@@ -2285,10 +2297,10 @@
       <c r="P21" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="Q21" s="15" t="s">
+      <c r="Q21" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="R21" s="25" t="s">
+      <c r="R21" s="11" t="s">
         <v>129</v>
       </c>
       <c r="S21" s="21"/>
@@ -2350,10 +2362,10 @@
       <c r="P22" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="Q22" s="15" t="s">
+      <c r="Q22" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="R22" s="25" t="s">
+      <c r="R22" s="11" t="s">
         <v>129</v>
       </c>
       <c r="S22" s="21"/>
@@ -2415,10 +2427,10 @@
       <c r="P23" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="Q23" s="15" t="s">
+      <c r="Q23" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="R23" s="25" t="s">
+      <c r="R23" s="11" t="s">
         <v>95</v>
       </c>
       <c r="S23" s="21"/>
@@ -2480,10 +2492,10 @@
       <c r="P24" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="Q24" s="15" t="s">
+      <c r="Q24" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="R24" s="25" t="s">
+      <c r="R24" s="11" t="s">
         <v>130</v>
       </c>
       <c r="S24" s="21"/>
@@ -2545,10 +2557,10 @@
       <c r="P25" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="Q25" s="15" t="s">
+      <c r="Q25" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="R25" s="25" t="s">
+      <c r="R25" s="11" t="s">
         <v>95</v>
       </c>
       <c r="S25" s="21"/>
@@ -2610,10 +2622,10 @@
       <c r="P26" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="Q26" s="15" t="s">
+      <c r="Q26" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="R26" s="25" t="s">
+      <c r="R26" s="11" t="s">
         <v>125</v>
       </c>
       <c r="S26" s="21"/>
@@ -2675,10 +2687,10 @@
       <c r="P27" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="Q27" s="15" t="s">
+      <c r="Q27" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="R27" s="25" t="s">
+      <c r="R27" s="11" t="s">
         <v>129</v>
       </c>
       <c r="S27" s="21"/>
@@ -2740,10 +2752,10 @@
       <c r="P28" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="Q28" s="15" t="s">
+      <c r="Q28" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="R28" s="25" t="s">
+      <c r="R28" s="11" t="s">
         <v>95</v>
       </c>
       <c r="S28" s="21"/>
@@ -2805,10 +2817,10 @@
       <c r="P29" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="Q29" s="15" t="s">
+      <c r="Q29" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="R29" s="25" t="s">
+      <c r="R29" s="11" t="s">
         <v>95</v>
       </c>
       <c r="S29" s="21"/>
@@ -2870,10 +2882,10 @@
       <c r="P30" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="Q30" s="15" t="s">
+      <c r="Q30" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="R30" s="25" t="s">
+      <c r="R30" s="11" t="s">
         <v>130</v>
       </c>
       <c r="S30" s="21"/>
@@ -2935,10 +2947,10 @@
       <c r="P31" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="Q31" s="15" t="s">
+      <c r="Q31" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="R31" s="25" t="s">
+      <c r="R31" s="11" t="s">
         <v>95</v>
       </c>
       <c r="S31" s="21"/>
@@ -3000,10 +3012,10 @@
       <c r="P32" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="Q32" s="15" t="s">
+      <c r="Q32" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="R32" s="25" t="s">
+      <c r="R32" s="11" t="s">
         <v>95</v>
       </c>
       <c r="S32" s="21"/>
@@ -3065,10 +3077,10 @@
       <c r="P33" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="Q33" s="15" t="s">
+      <c r="Q33" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="R33" s="25" t="s">
+      <c r="R33" s="11" t="s">
         <v>130</v>
       </c>
       <c r="S33" s="21"/>
@@ -3130,10 +3142,10 @@
       <c r="P34" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="Q34" s="15" t="s">
+      <c r="Q34" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="R34" s="24" t="s">
+      <c r="R34" s="11" t="s">
         <v>131</v>
       </c>
       <c r="S34" s="21"/>
@@ -3195,10 +3207,10 @@
       <c r="P35" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="Q35" s="15" t="s">
+      <c r="Q35" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="R35" s="25" t="s">
+      <c r="R35" s="11" t="s">
         <v>130</v>
       </c>
       <c r="S35" s="21"/>
@@ -3260,10 +3272,10 @@
       <c r="P36" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="Q36" s="15" t="s">
+      <c r="Q36" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="R36" s="25" t="s">
+      <c r="R36" s="11" t="s">
         <v>125</v>
       </c>
       <c r="S36" s="21"/>
@@ -3325,10 +3337,10 @@
       <c r="P37" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="Q37" s="15" t="s">
+      <c r="Q37" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="R37" s="25" t="s">
+      <c r="R37" s="11" t="s">
         <v>95</v>
       </c>
       <c r="S37" s="21"/>
@@ -3390,10 +3402,10 @@
       <c r="P38" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="Q38" s="15" t="s">
+      <c r="Q38" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="R38" s="25" t="s">
+      <c r="R38" s="11" t="s">
         <v>95</v>
       </c>
       <c r="S38" s="21"/>
@@ -3455,10 +3467,10 @@
       <c r="P39" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="Q39" s="15" t="s">
+      <c r="Q39" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="R39" s="25" t="s">
+      <c r="R39" s="11" t="s">
         <v>130</v>
       </c>
       <c r="S39" s="21"/>
@@ -3520,10 +3532,10 @@
       <c r="P40" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="Q40" s="15" t="s">
+      <c r="Q40" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="R40" s="25" t="s">
+      <c r="R40" s="11" t="s">
         <v>130</v>
       </c>
       <c r="S40" s="21"/>
@@ -3585,10 +3597,10 @@
       <c r="P41" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="Q41" s="15" t="s">
+      <c r="Q41" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="R41" s="24" t="s">
+      <c r="R41" s="11" t="s">
         <v>95</v>
       </c>
       <c r="S41" s="21"/>
@@ -3650,10 +3662,10 @@
       <c r="P42" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="Q42" s="15" t="s">
+      <c r="Q42" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="R42" s="25" t="s">
+      <c r="R42" s="11" t="s">
         <v>95</v>
       </c>
       <c r="S42" s="21"/>
@@ -3715,10 +3727,10 @@
       <c r="P43" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="Q43" s="15" t="s">
+      <c r="Q43" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="R43" s="25" t="s">
+      <c r="R43" s="11" t="s">
         <v>95</v>
       </c>
       <c r="S43" s="21"/>
@@ -3780,10 +3792,10 @@
       <c r="P44" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="Q44" s="15" t="s">
+      <c r="Q44" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="R44" s="25" t="s">
+      <c r="R44" s="11" t="s">
         <v>95</v>
       </c>
       <c r="S44" s="21"/>
@@ -3845,10 +3857,10 @@
       <c r="P45" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="Q45" s="15" t="s">
+      <c r="Q45" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="R45" s="24" t="s">
+      <c r="R45" s="11" t="s">
         <v>95</v>
       </c>
       <c r="S45" s="21"/>
@@ -3910,10 +3922,10 @@
       <c r="P46" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="Q46" s="15" t="s">
+      <c r="Q46" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="R46" s="24" t="s">
+      <c r="R46" s="11" t="s">
         <v>125</v>
       </c>
       <c r="S46" s="21"/>
@@ -3975,10 +3987,10 @@
       <c r="P47" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="Q47" s="15" t="s">
+      <c r="Q47" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="R47" s="25" t="s">
+      <c r="R47" s="11" t="s">
         <v>95</v>
       </c>
       <c r="S47" s="21"/>
@@ -4040,10 +4052,10 @@
       <c r="P48" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="Q48" s="15" t="s">
+      <c r="Q48" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="R48" s="25" t="s">
+      <c r="R48" s="11" t="s">
         <v>95</v>
       </c>
       <c r="S48" s="21"/>
@@ -4105,10 +4117,10 @@
       <c r="P49" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="Q49" s="15" t="s">
+      <c r="Q49" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="R49" s="25" t="s">
+      <c r="R49" s="11" t="s">
         <v>95</v>
       </c>
       <c r="S49" s="21"/>
@@ -4170,10 +4182,10 @@
       <c r="P50" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="Q50" s="15" t="s">
+      <c r="Q50" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="R50" s="25" t="s">
+      <c r="R50" s="11" t="s">
         <v>95</v>
       </c>
       <c r="S50" s="21"/>
@@ -4235,10 +4247,10 @@
       <c r="P51" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="Q51" s="15" t="s">
+      <c r="Q51" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="R51" s="25" t="s">
+      <c r="R51" s="11" t="s">
         <v>95</v>
       </c>
       <c r="S51" s="21"/>
@@ -4300,10 +4312,10 @@
       <c r="P52" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="Q52" s="15" t="s">
+      <c r="Q52" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="R52" s="25" t="s">
+      <c r="R52" s="11" t="s">
         <v>125</v>
       </c>
       <c r="S52" s="21"/>
@@ -4365,10 +4377,10 @@
       <c r="P53" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="Q53" s="15" t="s">
+      <c r="Q53" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="R53" s="25" t="s">
+      <c r="R53" s="11" t="s">
         <v>95</v>
       </c>
       <c r="S53" s="21"/>
@@ -4430,10 +4442,10 @@
       <c r="P54" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="Q54" s="15" t="s">
+      <c r="Q54" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="R54" s="25" t="s">
+      <c r="R54" s="11" t="s">
         <v>95</v>
       </c>
       <c r="S54" s="21"/>
@@ -4495,10 +4507,10 @@
       <c r="P55" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="Q55" s="15" t="s">
+      <c r="Q55" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="R55" s="25" t="s">
+      <c r="R55" s="11" t="s">
         <v>95</v>
       </c>
       <c r="S55" s="21"/>
@@ -4560,10 +4572,10 @@
       <c r="P56" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="Q56" s="15" t="s">
+      <c r="Q56" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="R56" s="25" t="s">
+      <c r="R56" s="11" t="s">
         <v>95</v>
       </c>
       <c r="S56" s="21"/>
@@ -4625,10 +4637,10 @@
       <c r="P57" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="Q57" s="15" t="s">
+      <c r="Q57" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="R57" s="25" t="s">
+      <c r="R57" s="11" t="s">
         <v>130</v>
       </c>
       <c r="S57" s="21"/>
@@ -4690,10 +4702,10 @@
       <c r="P58" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="Q58" s="15" t="s">
+      <c r="Q58" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="R58" s="25" t="s">
+      <c r="R58" s="11" t="s">
         <v>95</v>
       </c>
       <c r="S58" s="21"/>
@@ -4755,10 +4767,10 @@
       <c r="P59" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="Q59" s="15" t="s">
+      <c r="Q59" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="R59" s="25" t="s">
+      <c r="R59" s="11" t="s">
         <v>95</v>
       </c>
       <c r="S59" s="21"/>
@@ -4820,10 +4832,10 @@
       <c r="P60" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="Q60" s="15" t="s">
+      <c r="Q60" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="R60" s="25" t="s">
+      <c r="R60" s="11" t="s">
         <v>95</v>
       </c>
       <c r="S60" s="21"/>
@@ -4885,10 +4897,10 @@
       <c r="P61" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="Q61" s="15" t="s">
+      <c r="Q61" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="R61" s="25" t="s">
+      <c r="R61" s="11" t="s">
         <v>95</v>
       </c>
       <c r="S61" s="21"/>
@@ -4950,10 +4962,10 @@
       <c r="P62" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="Q62" s="15" t="s">
+      <c r="Q62" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="R62" s="25" t="s">
+      <c r="R62" s="11" t="s">
         <v>95</v>
       </c>
       <c r="S62" s="21"/>
@@ -5015,10 +5027,10 @@
       <c r="P63" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="Q63" s="15" t="s">
+      <c r="Q63" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="R63" s="25" t="s">
+      <c r="R63" s="11" t="s">
         <v>130</v>
       </c>
       <c r="S63" s="21"/>
@@ -5080,10 +5092,10 @@
       <c r="P64" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="Q64" s="15" t="s">
+      <c r="Q64" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="R64" s="24" t="s">
+      <c r="R64" s="11" t="s">
         <v>125</v>
       </c>
       <c r="S64" s="21"/>
@@ -5145,10 +5157,10 @@
       <c r="P65" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="Q65" s="15" t="s">
+      <c r="Q65" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="R65" s="24" t="s">
+      <c r="R65" s="11" t="s">
         <v>125</v>
       </c>
       <c r="S65" s="21"/>
@@ -5210,10 +5222,10 @@
       <c r="P66" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="Q66" s="15" t="s">
+      <c r="Q66" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="R66" s="24" t="s">
+      <c r="R66" s="11" t="s">
         <v>125</v>
       </c>
       <c r="S66" s="21"/>
@@ -5275,10 +5287,10 @@
       <c r="P67" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="Q67" s="15" t="s">
+      <c r="Q67" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="R67" s="25" t="s">
+      <c r="R67" s="11" t="s">
         <v>125</v>
       </c>
       <c r="S67" s="21"/>
@@ -5340,10 +5352,10 @@
       <c r="P68" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="Q68" s="15" t="s">
+      <c r="Q68" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="R68" s="25" t="s">
+      <c r="R68" s="11" t="s">
         <v>125</v>
       </c>
       <c r="S68" s="21"/>
@@ -5374,7 +5386,7 @@
       <c r="O69" s="21"/>
       <c r="P69" s="21"/>
       <c r="Q69" s="23"/>
-      <c r="R69" s="21"/>
+      <c r="R69" s="27"/>
       <c r="S69" s="21"/>
       <c r="T69" s="21"/>
       <c r="U69" s="21"/>
@@ -5397,7 +5409,7 @@
       <c r="O70" s="21"/>
       <c r="P70" s="21"/>
       <c r="Q70" s="23"/>
-      <c r="R70" s="21"/>
+      <c r="R70" s="27"/>
       <c r="S70" s="21"/>
       <c r="T70" s="21"/>
       <c r="U70" s="21"/>

--- a/CLAVES MINAS.xlsx
+++ b/CLAVES MINAS.xlsx
@@ -929,10 +929,10 @@
   </sheetPr>
   <dimension ref="A1:AA71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="T25" sqref="T25"/>
+      <selection pane="bottomLeft" activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
